--- a/AQI_Breakingpoints.xlsx
+++ b/AQI_Breakingpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/ckiokak_netcompany_com/Documents/Documents/IoT/IoT-APARS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB4ED94-A02A-4AB9-BF66-26D3E41130D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{EFB4ED94-A02A-4AB9-BF66-26D3E41130D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88CC3507-B70A-41D3-ABE4-7B3AB7DA1B36}"/>
   <bookViews>
-    <workbookView xWindow="-4635" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{692AA805-449B-43EB-A383-3CF970FA8A04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{692AA805-449B-43EB-A383-3CF970FA8A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7C53CD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -218,10 +260,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -230,6 +293,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7C53CD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -560,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBFE2D9-CA93-4289-B30C-E10B9B3ADE67}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +643,7 @@
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +673,7 @@
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3">
@@ -628,7 +696,7 @@
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3">
@@ -674,7 +742,7 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="3">
@@ -697,7 +765,7 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3">
@@ -720,7 +788,7 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="3">
@@ -737,140 +805,140 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>50</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>51</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>9.1</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>35.4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>101</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>150</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>35.5</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>55.4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>151</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>200</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>55.5</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>125.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>201</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>125.5</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>225.4</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>301</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>500</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>225.5</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>500</v>
       </c>
     </row>
@@ -881,7 +949,7 @@
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="3">
@@ -893,7 +961,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>54</v>
       </c>
     </row>
@@ -904,7 +972,7 @@
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
@@ -916,7 +984,7 @@
       <c r="F15" s="3">
         <v>54.1</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>154</v>
       </c>
     </row>
@@ -939,7 +1007,7 @@
       <c r="F16" s="3">
         <v>154.1</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>254</v>
       </c>
     </row>
@@ -950,7 +1018,7 @@
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="3">
@@ -962,7 +1030,7 @@
       <c r="F17" s="3">
         <v>254.1</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>354</v>
       </c>
     </row>
@@ -973,7 +1041,7 @@
       <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="3">
@@ -985,7 +1053,7 @@
       <c r="F18" s="3">
         <v>354.1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>424</v>
       </c>
     </row>
@@ -996,7 +1064,7 @@
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3">
@@ -1008,145 +1076,145 @@
       <c r="F19" s="3">
         <v>424.1</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>0</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <v>50</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="5">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>51</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>200.1</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>101</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <v>150</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>400.1</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>151</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="5">
         <v>800.1</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>1200</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>201</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="5">
         <v>1200.0999999999999</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>1800</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>301</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>500</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="5">
         <v>1800.1</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>2400</v>
       </c>
     </row>
@@ -1157,7 +1225,7 @@
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="3">
@@ -1169,7 +1237,7 @@
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
     </row>
@@ -1180,7 +1248,7 @@
       <c r="B27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="3">
@@ -1192,7 +1260,7 @@
       <c r="F27" s="3">
         <v>100.1</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
     </row>
@@ -1215,7 +1283,7 @@
       <c r="F28" s="3">
         <v>200.1</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1226,7 +1294,7 @@
       <c r="B29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="3">
@@ -1238,7 +1306,7 @@
       <c r="F29" s="3">
         <v>300.10000000000002</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>400</v>
       </c>
     </row>
@@ -1249,7 +1317,7 @@
       <c r="B30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="3">
@@ -1261,7 +1329,7 @@
       <c r="F30" s="3">
         <v>400.1</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>500</v>
       </c>
     </row>
@@ -1272,7 +1340,7 @@
       <c r="B31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3">
@@ -1284,145 +1352,145 @@
       <c r="F31" s="3">
         <v>500.1</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>0</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <v>50</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="5">
         <v>0</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>51</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="5">
         <v>100.1</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>101</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <v>150</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="5">
         <v>200.1</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>151</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="5">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="5">
         <v>300.10000000000002</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>201</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="5">
         <v>300</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="5">
         <v>400.1</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>301</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="5">
         <v>500</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="5">
         <v>500.1</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>600</v>
       </c>
     </row>
@@ -1433,7 +1501,7 @@
       <c r="B38" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="3">
@@ -1445,7 +1513,7 @@
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>350</v>
       </c>
     </row>
@@ -1456,7 +1524,7 @@
       <c r="B39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="3">
@@ -1468,7 +1536,7 @@
       <c r="F39" s="3">
         <v>350.1</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>600</v>
       </c>
     </row>
@@ -1491,7 +1559,7 @@
       <c r="F40" s="3">
         <v>600.1</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1502,7 +1570,7 @@
       <c r="B41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="3">
@@ -1514,7 +1582,7 @@
       <c r="F41" s="3">
         <v>1000.1</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
     </row>
@@ -1525,7 +1593,7 @@
       <c r="B42" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="3">
@@ -1537,7 +1605,7 @@
       <c r="F42" s="3">
         <v>1500.1</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="3">
         <v>2000</v>
       </c>
     </row>
@@ -1548,7 +1616,7 @@
       <c r="B43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="3">
@@ -1560,145 +1628,145 @@
       <c r="F43" s="3">
         <v>2000.1</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <v>50</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="5">
         <v>0</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>51</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="5">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="5">
         <v>54.1</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>101</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <v>150</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="5">
         <v>154.1</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>151</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="5">
         <v>254.1</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>201</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="5">
         <v>354.1</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>301</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="5">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="5">
         <v>424.1</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>604</v>
       </c>
     </row>

--- a/AQI_Breakingpoints.xlsx
+++ b/AQI_Breakingpoints.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netcompany-my.sharepoint.com/personal/ckiokak_netcompany_com/Documents/Documents/IoT/IoT-APARS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{EFB4ED94-A02A-4AB9-BF66-26D3E41130D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88CC3507-B70A-41D3-ABE4-7B3AB7DA1B36}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{EFB4ED94-A02A-4AB9-BF66-26D3E41130D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DA66A33-7CB5-4F15-BE72-E83038D28A19}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{692AA805-449B-43EB-A383-3CF970FA8A04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{692AA805-449B-43EB-A383-3CF970FA8A04}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Breakingpoints" sheetId="1" r:id="rId1"/>
+    <sheet name="Harmful Gasses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="112">
   <si>
     <t>Parameter</t>
   </si>
@@ -105,13 +106,280 @@
   </si>
   <si>
     <t>Dust</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Frequent Location</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide (CO)</t>
+  </si>
+  <si>
+    <t>Incomplete combustion of fossil fuels, vehicle emissions, industrial processes</t>
+  </si>
+  <si>
+    <t>Headaches, dizziness, nausea, confusion, death at high concentrations</t>
+  </si>
+  <si>
+    <t>Urban roads, industrial areas</t>
+  </si>
+  <si>
+    <t>Electrochemical CO sensor</t>
+  </si>
+  <si>
+    <t>Nitrogen Dioxide (NO₂)</t>
+  </si>
+  <si>
+    <t>Vehicle emissions, power plants, industrial boilers</t>
+  </si>
+  <si>
+    <t>Respiratory irritation, reduced lung function, aggravation of asthma, long-term exposure can damage lung tissue</t>
+  </si>
+  <si>
+    <t>Urban areas, industrial zones</t>
+  </si>
+  <si>
+    <t>Electrochemical NO₂ sensor</t>
+  </si>
+  <si>
+    <t>Sulfur Dioxide (SO₂)</t>
+  </si>
+  <si>
+    <t>Burning of coal and oil, industrial processes</t>
+  </si>
+  <si>
+    <t>Respiratory issues, aggravation of asthma, damage to the respiratory tract, contributes to acid rain</t>
+  </si>
+  <si>
+    <t>Industrial zones, areas with coal burning</t>
+  </si>
+  <si>
+    <t>Electrochemical SO₂ sensor</t>
+  </si>
+  <si>
+    <t>Ozone (O₃)</t>
+  </si>
+  <si>
+    <t>Reaction of sunlight with NOx and VOCs</t>
+  </si>
+  <si>
+    <t>Respiratory irritation, chest pain, reduced lung function, exacerbation of respiratory diseases</t>
+  </si>
+  <si>
+    <t>Urban areas with heavy traffic and industrial activity</t>
+  </si>
+  <si>
+    <t>Semiconductor O₃ sensor</t>
+  </si>
+  <si>
+    <t>Particulate Matter (PM)</t>
+  </si>
+  <si>
+    <t>Combustion, construction activities, vehicle emissions</t>
+  </si>
+  <si>
+    <t>Respiratory and cardiovascular issues, lung cancer, premature death</t>
+  </si>
+  <si>
+    <t>Urban areas, construction zones, near factories</t>
+  </si>
+  <si>
+    <t>Laser-based PM sensor (e.g., PMS5003)</t>
+  </si>
+  <si>
+    <t>Volatile Organic Compounds (VOCs)</t>
+  </si>
+  <si>
+    <t>Vehicle emissions, industrial solvents, paints, cleaning agents</t>
+  </si>
+  <si>
+    <t>Eye, nose, and throat irritation; headaches; liver, kidney, and central nervous system damage; some are carcinogenic</t>
+  </si>
+  <si>
+    <t>Urban areas, industrial sites, indoor spaces with poor ventilation</t>
+  </si>
+  <si>
+    <t>Metal Oxide VOC sensor</t>
+  </si>
+  <si>
+    <t>Hydrogen Sulfide (H₂S)</t>
+  </si>
+  <si>
+    <t>Decay of organic matter, industrial processes, sewage treatment plants</t>
+  </si>
+  <si>
+    <t>Irritation of eyes and respiratory tract, headaches, nausea, at high concentrations can be fatal</t>
+  </si>
+  <si>
+    <t>Industrial zones, near waste treatment facilities</t>
+  </si>
+  <si>
+    <t>Electrochemical H₂S sensor</t>
+  </si>
+  <si>
+    <t>Methane (CH₄)</t>
+  </si>
+  <si>
+    <t>Natural gas leakage, landfills, agriculture</t>
+  </si>
+  <si>
+    <t>Asphyxiation in high concentrations, explosive in confined spaces</t>
+  </si>
+  <si>
+    <t>Landfills, oil and gas facilities, agricultural areas</t>
+  </si>
+  <si>
+    <t>Infrared (IR) CH₄ sensor</t>
+  </si>
+  <si>
+    <t>Ammonia (NH₃)</t>
+  </si>
+  <si>
+    <t>Agriculture, industrial cleaning agents</t>
+  </si>
+  <si>
+    <t>Respiratory irritation, burning of eyes, nose, and throat, coughing</t>
+  </si>
+  <si>
+    <t>Agricultural areas, industrial sites, cleaning facilities</t>
+  </si>
+  <si>
+    <t>Electrochemical NH₃ sensor</t>
+  </si>
+  <si>
+    <t>Benzene (C₆H₆)</t>
+  </si>
+  <si>
+    <t>Vehicle emissions, industrial processes, tobacco smoke</t>
+  </si>
+  <si>
+    <t>Carcinogenic, affects bone marrow, causes anemia, immune system damage</t>
+  </si>
+  <si>
+    <t>Urban roads, industrial areas, tobacco smoke environments</t>
+  </si>
+  <si>
+    <t>Metal Oxide or PID sensor</t>
+  </si>
+  <si>
+    <t>Chlorine (Cl₂)</t>
+  </si>
+  <si>
+    <t>Industrial processes, water treatment plants</t>
+  </si>
+  <si>
+    <t>Respiratory issues, lung damage, irritation to eyes and skin</t>
+  </si>
+  <si>
+    <t>Industrial zones, water treatment facilities</t>
+  </si>
+  <si>
+    <t>Electrochemical Cl₂ sensor</t>
+  </si>
+  <si>
+    <t>Formaldehyde (CH₂O)</t>
+  </si>
+  <si>
+    <t>Industrial processes, vehicle emissions, building materials</t>
+  </si>
+  <si>
+    <t>Respiratory and skin irritation, cancer with prolonged exposure</t>
+  </si>
+  <si>
+    <t>Urban areas, industrial zones, indoor spaces</t>
+  </si>
+  <si>
+    <t>Electrochemical or PID sensor</t>
+  </si>
+  <si>
+    <t>Fluorine (F₂)</t>
+  </si>
+  <si>
+    <t>Industrial processes, refrigerants, Teflon production</t>
+  </si>
+  <si>
+    <t>Highly toxic, causes severe respiratory and eye damage</t>
+  </si>
+  <si>
+    <t>Industrial zones</t>
+  </si>
+  <si>
+    <t>Electrochemical F₂ sensor</t>
+  </si>
+  <si>
+    <t>Hydrofluoric Acid (HF)</t>
+  </si>
+  <si>
+    <t>Industrial processes, glass etching, electronics manufacturing</t>
+  </si>
+  <si>
+    <t>Respiratory damage, skin burns, systemic toxicity</t>
+  </si>
+  <si>
+    <t>Electrochemical HF sensor</t>
+  </si>
+  <si>
+    <t>Radon (Rn)</t>
+  </si>
+  <si>
+    <t>Natural radioactive decay of uranium in soil and rocks</t>
+  </si>
+  <si>
+    <t>Lung cancer, particularly with prolonged exposure</t>
+  </si>
+  <si>
+    <t>Indoor spaces, basements, mining areas</t>
+  </si>
+  <si>
+    <t>Radon detector</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide (CO₂)</t>
+  </si>
+  <si>
+    <t>Fossil fuel combustion, industrial processes, respiration</t>
+  </si>
+  <si>
+    <t>At high concentrations, dizziness, headaches, unconsciousness</t>
+  </si>
+  <si>
+    <t>Urban areas, industrial zones, enclosed spaces with poor ventilation</t>
+  </si>
+  <si>
+    <t>NDIR CO₂ sensor</t>
+  </si>
+  <si>
+    <t>Need to measure</t>
+  </si>
+  <si>
+    <t>Good to measure</t>
+  </si>
+  <si>
+    <t>Difficult to find (Applies to specific instances</t>
+  </si>
+  <si>
+    <t>You have to try</t>
+  </si>
+  <si>
+    <t>Importance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +399,16 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +460,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7C53CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -285,6 +579,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBFE2D9-CA93-4289-B30C-E10B9B3ADE67}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1774,4 +2101,331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B564EADF-0EB1-4DAA-9677-9894F753A059}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>